--- a/analysis/Time_to_train_vs_size_of_model.xlsx
+++ b/analysis/Time_to_train_vs_size_of_model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="660" windowWidth="25560" windowHeight="17340" tabRatio="500"/>
+    <workbookView xWindow="580" yWindow="620" windowWidth="25560" windowHeight="17340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="33" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="18">
   <si>
     <t>x</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Column Labels</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
   </si>
   <si>
     <t>Adam(0.0001)</t>
+  </si>
+  <si>
+    <t>Adam(0.0005)</t>
+  </si>
+  <si>
+    <t>Adam(0.005)</t>
   </si>
 </sst>
 </file>
@@ -132,13 +135,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFF6C13C"/>
+      <color rgb="FFEF5437"/>
+      <color rgb="FF69D57C"/>
+      <color rgb="FF1997EB"/>
       <color rgb="FF9159EA"/>
-      <color rgb="FFEF5437"/>
-      <color rgb="FFF6C13C"/>
-      <color rgb="FF1997EB"/>
-      <color rgb="FF69D57C"/>
+      <color rgb="FFE14DAD"/>
+      <color rgb="FF9FA7AD"/>
       <color rgb="FFE3295C"/>
-      <color rgb="FF9FA7AD"/>
       <color rgb="FF1D1F21"/>
     </mruColors>
   </colors>
@@ -233,7 +237,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Adam(0.00146)</c:v>
+                  <c:v>Adam(0.0001)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -374,112 +378,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>10.0279388427734</c:v>
+                  <c:v>39.3554260730743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.8729672431945</c:v>
+                  <c:v>46.8770599365234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.1802048683166</c:v>
+                  <c:v>49.9336035251617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.3609774112701</c:v>
+                  <c:v>53.0215165615081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.2804179191589</c:v>
+                  <c:v>55.1128787994384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.8034014701843</c:v>
+                  <c:v>60.3875927925109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.3432800769805</c:v>
+                  <c:v>56.9412240982055</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.1545593738555</c:v>
+                  <c:v>61.7068781852722</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.588059425354</c:v>
+                  <c:v>60.9934868812561</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.2737655639648</c:v>
+                  <c:v>69.18917989730831</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.264592885971</c:v>
+                  <c:v>67.5673925876617</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.002454996109</c:v>
+                  <c:v>72.80489015579219</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.3716094493866</c:v>
+                  <c:v>77.5081026554107</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.7634596824646</c:v>
+                  <c:v>87.173752784729</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.409434556961</c:v>
+                  <c:v>86.040093421936</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42.5464327335357</c:v>
+                  <c:v>87.93008637428279</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.138011932373</c:v>
+                  <c:v>93.5387694835662</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61.9248743057251</c:v>
+                  <c:v>99.5679261684417</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>41.9772868156433</c:v>
+                  <c:v>87.22471117973321</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51.3272697925567</c:v>
+                  <c:v>95.2417941093444</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44.8593907356262</c:v>
+                  <c:v>101.506627559661</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>55.606251001358</c:v>
+                  <c:v>111.94447684288</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>61.4360718727111</c:v>
+                  <c:v>114.633072853088</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50.2809216976165</c:v>
+                  <c:v>114.82565164566</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>70.0198175907135</c:v>
+                  <c:v>116.888590812683</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>60.1236176490783</c:v>
+                  <c:v>126.224202632904</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>66.9240641593933</c:v>
+                  <c:v>123.18868279457</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>69.1550407409668</c:v>
+                  <c:v>127.831136226654</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>86.8964290618896</c:v>
+                  <c:v>129.644008636474</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>79.83697414398191</c:v>
+                  <c:v>147.615255594253</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>68.5952250957489</c:v>
+                  <c:v>149.856893062591</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>97.3893284797668</c:v>
+                  <c:v>148.305314540863</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>85.2236754894256</c:v>
+                  <c:v>142.739153146743</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>98.4524171352386</c:v>
+                  <c:v>160.088807344436</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>77.939637184143</c:v>
+                  <c:v>163.291986703872</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>87.8546166419982</c:v>
+                  <c:v>168.548638105392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,7 +499,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Adam(0.01)</c:v>
+                  <c:v>Adam(0.0005)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -503,7 +507,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="9159EA"/>
+                <a:srgbClr val="69D57C"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -636,34 +640,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>43.616012096405</c:v>
+                  <c:v>14.9573395252227</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.00593137741</c:v>
+                  <c:v>18.0163474082946</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.2143919467926</c:v>
+                  <c:v>19.7620692253112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.7791104316711</c:v>
+                  <c:v>19.2198550701141</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.2664766311645</c:v>
+                  <c:v>21.6111276149749</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.2335684299469</c:v>
+                  <c:v>23.822999715805</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.360285282135</c:v>
+                  <c:v>25.1782708168029</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.5361490249633</c:v>
+                  <c:v>23.9197154045104</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>85.4127674102783</c:v>
+                  <c:v>24.9543995857238</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>98.9074218273162</c:v>
+                  <c:v>28.3087012767791</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.3703286647796</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.7428083419799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.3498308658599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.6231622695922</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.3890380859375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.4618685245513</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.4351999759674</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41.0825688838958</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42.0599582195282</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.0592267513275</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.0676252841949</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55.8570616245269</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.1325225830078</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54.6758785247802</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55.6648473739624</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>59.9803946018219</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61.3258159160614</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57.9134321212768</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58.8685562610626</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>79.3655540943145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>74.3127837181091</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76.8449418544769</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71.0394189357757</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>82.97694802284239</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>84.55042099952691</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>87.19233107566831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,6 +762,530 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Adam(0.001)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="1997EB"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>10.8962569236755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.0227670669555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.2076435089111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.5583441257476</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.4713771343231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.0503613948822</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.3742051124572</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.6101455688476</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.7379839420318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.303610086441</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.096651315689</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.8801569938659</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.2887139320373</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30.5044114589691</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.1587545871734</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32.853588104248</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.6889948844909</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.9966931343078</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.2964649200439</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.2457242012023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.6429796218872</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51.0172326564788</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43.097386598587</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49.9590771198272</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55.5299022197723</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>59.5269873142242</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55.8313701152801</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52.3349697589874</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>75.2199637889862</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>79.1732549667358</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67.9388129711151</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82.93363833427421</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>77.4278826713562</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68.2493786811828</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77.1242110729217</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>79.3232133388519</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adam(0.00146)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="E14DAD"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>10.0279388427734</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.8729672431945</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.1802048683166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.3609774112701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.2804179191589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.8034014701843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.3432800769805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.1545593738555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.588059425354</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.2737655639648</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.264592885971</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.002454996109</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.3716094493866</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.7634596824646</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.409434556961</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42.5464327335357</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37.138011932373</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61.9248743057251</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41.9772868156433</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51.3272697925567</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44.8593907356262</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55.606251001358</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61.4360718727111</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.2809216976165</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70.0198175907135</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60.1236176490783</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66.9240641593933</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69.1550407409668</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>86.8964290618896</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>79.83697414398191</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68.5952250957489</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>97.3893284797668</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>85.2236754894256</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>98.4524171352386</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>77.939637184143</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>87.8546166419982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Adam(0.005)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -815,117 +1421,117 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$40</c:f>
+              <c:f>Sheet1!$F$5:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>10.8962569236755</c:v>
+                  <c:v>12.0827920436859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.0227670669555</c:v>
+                  <c:v>16.0479123592376</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.2076435089111</c:v>
+                  <c:v>17.3550467491149</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.5583441257476</c:v>
+                  <c:v>32.2507226467132</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.4713771343231</c:v>
+                  <c:v>23.8471283912658</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.0503613948822</c:v>
+                  <c:v>31.1134417057037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.3742051124572</c:v>
+                  <c:v>24.8325712680816</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.6101455688476</c:v>
+                  <c:v>28.5412154197692</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.7379839420318</c:v>
+                  <c:v>33.1177706718444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.303610086441</c:v>
+                  <c:v>35.2611153125762</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.096651315689</c:v>
+                  <c:v>45.303569316864</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.8801569938659</c:v>
+                  <c:v>52.9671437740325</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.2887139320373</c:v>
+                  <c:v>45.702159166336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.5044114589691</c:v>
+                  <c:v>59.7881941795349</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.1587545871734</c:v>
+                  <c:v>81.0203404426574</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.853588104248</c:v>
+                  <c:v>73.12373423576349</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.6889948844909</c:v>
+                  <c:v>56.8794445991516</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36.9966931343078</c:v>
+                  <c:v>95.57077121734611</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.2964649200439</c:v>
+                  <c:v>122.830649852752</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>47.2457242012023</c:v>
+                  <c:v>106.807296037673</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40.6429796218872</c:v>
+                  <c:v>146.43914270401</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>51.0172326564788</c:v>
+                  <c:v>74.13369345664969</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43.097386598587</c:v>
+                  <c:v>71.5461835861206</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49.9590771198272</c:v>
+                  <c:v>115.163269281387</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>55.5299022197723</c:v>
+                  <c:v>163.00628209114</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>59.5269873142242</c:v>
+                  <c:v>122.18419766426</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>55.8313701152801</c:v>
+                  <c:v>129.168406963348</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>52.3349697589874</c:v>
+                  <c:v>123.599110603332</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>75.2199637889862</c:v>
+                  <c:v>130.948698997497</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>79.1732549667358</c:v>
+                  <c:v>130.673369407653</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>67.9388129711151</c:v>
+                  <c:v>101.845848798751</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>82.93363833427421</c:v>
+                  <c:v>162.817086458206</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>77.4278826713562</c:v>
+                  <c:v>145.578704357147</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68.2493786811828</c:v>
+                  <c:v>183.042791604995</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>77.1242110729217</c:v>
+                  <c:v>130.000782489776</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>79.3232133388519</c:v>
+                  <c:v>199.349837303161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -933,15 +1539,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
+              <c:f>Sheet1!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Adam(0.0001)</c:v>
+                  <c:v>Adam(0.01)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -949,7 +1555,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="69D57C"/>
+                <a:srgbClr val="9FA7AD"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1077,117 +1683,78 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$40</c:f>
+              <c:f>Sheet1!$G$5:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>39.3554260730743</c:v>
+                  <c:v>34.27532684803004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.8770599365234</c:v>
+                  <c:v>107.00593137741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.9336035251617</c:v>
+                  <c:v>62.5393359661102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.0215165615081</c:v>
+                  <c:v>47.236587524414</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.1128787994384</c:v>
+                  <c:v>75.69403111934655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.3875927925109</c:v>
+                  <c:v>103.762474656105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.9412240982055</c:v>
+                  <c:v>101.502432465553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61.7068781852722</c:v>
+                  <c:v>56.55123615264885</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.9934868812561</c:v>
+                  <c:v>100.3769035339351</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.18917989730831</c:v>
+                  <c:v>98.9074218273162</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.5673925876617</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>72.80489015579219</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>77.5081026554107</c:v>
+                  <c:v>96.6768159866333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>87.173752784729</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>86.040093421936</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>87.93008637428279</c:v>
+                  <c:v>100.326340436935</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>93.5387694835662</c:v>
+                  <c:v>180.356122732162</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>99.5679261684417</c:v>
+                  <c:v>156.011006593704</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87.22471117973321</c:v>
+                  <c:v>95.2771990299224</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>95.2417941093444</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>101.506627559661</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>111.94447684288</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>114.633072853088</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>114.82565164566</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>116.888590812683</c:v>
+                  <c:v>146.466215610504</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>126.224202632904</c:v>
+                  <c:v>147.093734264373</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>123.18868279457</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>127.831136226654</c:v>
+                  <c:v>190.318785905838</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>129.644008636474</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>147.615255594253</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>149.856893062591</c:v>
+                  <c:v>194.682267427444</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>148.305314540863</c:v>
+                  <c:v>226.488570928573</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>142.739153146743</c:v>
+                  <c:v>190.836321830749</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>160.088807344436</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>163.291986703872</c:v>
+                  <c:v>155.496073246002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>168.548638105392</c:v>
+                  <c:v>220.673349142074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,11 +1769,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="411907296"/>
-        <c:axId val="411638576"/>
+        <c:axId val="659370528"/>
+        <c:axId val="820103824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="411907296"/>
+        <c:axId val="659370528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -1316,12 +1883,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411638576"/>
+        <c:crossAx val="820103824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="411638576"/>
+        <c:axId val="820103824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411907296"/>
+        <c:crossAx val="659370528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1870,11 +2437,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="859164768"/>
-        <c:axId val="821262480"/>
+        <c:axId val="858279136"/>
+        <c:axId val="820088688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="859164768"/>
+        <c:axId val="858279136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -1983,12 +2550,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="821262480"/>
+        <c:crossAx val="820088688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="821262480"/>
+        <c:axId val="820088688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2095,7 +2662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="859164768"/>
+        <c:crossAx val="858279136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3273,10 +3840,10 @@
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3334,7 +3901,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43199.478606828707" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="119">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43199.647921180556" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="212">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:C1048576" sheet="Time_to_train_vs_size_of_model"/>
   </cacheSource>
@@ -3381,14 +3948,16 @@
       </sharedItems>
     </cacheField>
     <cacheField name="y" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="10.0279388427734" maxValue="168.548638105392"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="10.0279388427734" maxValue="226.48857092857301"/>
     </cacheField>
     <cacheField name="label" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
+      <sharedItems containsBlank="1" count="10">
         <s v="Adam(0.00146)"/>
         <s v="Adam(0.01)"/>
         <s v="Adam(0.001)"/>
         <s v="Adam(0.0001)"/>
+        <s v="Adam(0.0005)"/>
+        <s v="Adam(0.005)"/>
         <m/>
         <s v="Adam(0.0010000000000000002)" u="1"/>
         <s v="Adam(0.00010000000000000002)" u="1"/>
@@ -3405,7 +3974,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="119">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="212">
   <r>
     <x v="0"/>
     <n v="10.0279388427734"/>
@@ -3997,19 +4566,484 @@
     <x v="3"/>
   </r>
   <r>
+    <x v="0"/>
+    <n v="14.9573395252227"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="18.0163474082946"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="19.762069225311201"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="19.2198550701141"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="21.611127614974901"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="23.822999715805"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="25.1782708168029"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="23.919715404510399"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="24.954399585723799"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="28.3087012767791"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="27.370328664779599"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="31.742808341979899"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="30.3498308658599"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="36.6231622695922"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="37.3890380859375"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="36.461868524551299"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="40.4351999759674"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="41.082568883895803"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="42.059958219528198"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="44.0592267513275"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="45.067625284194897"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="55.857061624526899"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="48.132522583007798"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="54.675878524780202"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="55.664847373962402"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="59.980394601821899"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="61.325815916061401"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="57.913432121276799"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="58.868556261062601"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="79.365554094314504"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="74.312783718109102"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="76.8449418544769"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="71.0394189357757"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="82.976948022842393"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="84.550420999526906"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="87.192331075668307"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="12.082792043685901"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="16.0479123592376"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="17.355046749114901"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="32.2507226467132"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="23.847128391265802"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="31.1134417057037"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="24.832571268081601"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="28.541215419769198"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="33.117770671844397"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="35.261115312576202"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="45.303569316863999"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="52.9671437740325"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="45.702159166336003"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="59.788194179534898"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="81.0203404426574"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="73.123734235763493"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="56.879444599151597"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="95.570771217346106"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="122.830649852752"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="106.807296037673"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="146.43914270401001"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="74.133693456649695"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="71.546183586120605"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="115.163269281387"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="163.00628209114001"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="122.18419766426"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="129.16840696334799"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="123.59911060333199"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="130.94869899749699"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="130.67336940765301"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="101.84584879875101"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="162.81708645820601"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="145.57870435714699"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="183.04279160499499"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="130.00078248977599"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="199.349837303161"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="24.934641599655102"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="71.8642799854278"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="55.694064617156897"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="95.121585607528601"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="109.291380882263"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="155.64457964897099"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="53.566323280334402"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="115.34103965759201"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="96.676815986633301"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="100.326340436935"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="180.35612273216199"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="156.011006593704"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="95.2771990299224"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="146.46621561050401"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="147.09373426437301"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="190.31878590583801"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="194.682267427444"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="226.48857092857301"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="190.836321830749"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="155.496073246002"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="220.67334914207399"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="36"/>
     <m/>
-    <x v="4"/>
+    <x v="6"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G40" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="38">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="37">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -4047,28 +5081,28 @@
         <item x="34"/>
         <item x="35"/>
         <item x="36"/>
-        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="9">
-        <item m="1" x="6"/>
-        <item m="1" x="5"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="10">
+        <item x="3"/>
+        <item m="1" x="8"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item m="1" x="7"/>
         <item x="0"/>
-        <item m="1" x="7"/>
-        <item h="1" x="4"/>
+        <item x="5"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
+        <item m="1" x="9"/>
+        <item h="1" x="6"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="37">
+  <rowItems count="36">
     <i>
       <x/>
     </i>
@@ -4177,16 +5211,19 @@
     <i>
       <x v="35"/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
   </rowItems>
   <colFields count="1">
     <field x="2"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i>
       <x v="5"/>
@@ -4196,9 +5233,6 @@
     </i>
     <i>
       <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
     </i>
   </colItems>
   <dataFields count="1">
@@ -4476,736 +5510,854 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F41"/>
+  <dimension ref="A3:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>10.0279388427734</v>
+        <v>39.355426073074298</v>
       </c>
       <c r="C5" s="3">
-        <v>43.616012096405001</v>
+        <v>14.9573395252227</v>
       </c>
       <c r="D5" s="3">
         <v>10.8962569236755</v>
       </c>
       <c r="E5" s="3">
-        <v>39.355426073074298</v>
+        <v>10.0279388427734</v>
       </c>
       <c r="F5" s="3">
-        <v>25.973908483982051</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12.082792043685901</v>
+      </c>
+      <c r="G5" s="3">
+        <v>34.275326848030048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1.25</v>
       </c>
       <c r="B6" s="3">
-        <v>11.8729672431945</v>
+        <v>46.877059936523402</v>
       </c>
       <c r="C6" s="3">
-        <v>107.00593137740999</v>
+        <v>18.0163474082946</v>
       </c>
       <c r="D6" s="3">
         <v>14.022767066955501</v>
       </c>
       <c r="E6" s="3">
-        <v>46.877059936523402</v>
+        <v>11.8729672431945</v>
       </c>
       <c r="F6" s="3">
-        <v>44.944681406020848</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16.0479123592376</v>
+      </c>
+      <c r="G6" s="3">
+        <v>107.00593137740999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1.5</v>
       </c>
       <c r="B7" s="3">
-        <v>15.180204868316601</v>
+        <v>49.933603525161701</v>
       </c>
       <c r="C7" s="3">
-        <v>53.214391946792603</v>
+        <v>19.762069225311201</v>
       </c>
       <c r="D7" s="3">
         <v>15.207643508911101</v>
       </c>
       <c r="E7" s="3">
-        <v>49.933603525161701</v>
+        <v>15.180204868316601</v>
       </c>
       <c r="F7" s="3">
-        <v>33.383960962295504</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17.355046749114901</v>
+      </c>
+      <c r="G7" s="3">
+        <v>62.539335966110201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1.75</v>
       </c>
       <c r="B8" s="3">
-        <v>15.360977411270101</v>
+        <v>53.021516561508101</v>
       </c>
       <c r="C8" s="3">
-        <v>38.7791104316711</v>
+        <v>19.2198550701141</v>
       </c>
       <c r="D8" s="3">
         <v>15.558344125747601</v>
       </c>
       <c r="E8" s="3">
-        <v>53.021516561508101</v>
+        <v>15.360977411270101</v>
       </c>
       <c r="F8" s="3">
-        <v>30.679987132549222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32.2507226467132</v>
+      </c>
+      <c r="G8" s="3">
+        <v>47.236587524413999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2</v>
       </c>
       <c r="B9" s="3">
-        <v>16.2804179191589</v>
+        <v>55.112878799438398</v>
       </c>
       <c r="C9" s="3">
-        <v>56.266476631164501</v>
+        <v>21.611127614974901</v>
       </c>
       <c r="D9" s="3">
         <v>16.471377134323099</v>
       </c>
       <c r="E9" s="3">
-        <v>55.112878799438398</v>
+        <v>16.2804179191589</v>
       </c>
       <c r="F9" s="3">
-        <v>36.032787621021221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.847128391265802</v>
+      </c>
+      <c r="G9" s="3">
+        <v>75.694031119346548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2.25</v>
       </c>
       <c r="B10" s="3">
-        <v>17.803401470184301</v>
+        <v>60.387592792510901</v>
       </c>
       <c r="C10" s="3">
-        <v>98.233568429946899</v>
+        <v>23.822999715805</v>
       </c>
       <c r="D10" s="3">
         <v>18.050361394882199</v>
       </c>
       <c r="E10" s="3">
-        <v>60.387592792510901</v>
+        <v>17.803401470184301</v>
       </c>
       <c r="F10" s="3">
-        <v>48.618731021881075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31.1134417057037</v>
+      </c>
+      <c r="G10" s="3">
+        <v>103.76247465610496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2.5</v>
       </c>
       <c r="B11" s="3">
-        <v>17.343280076980498</v>
+        <v>56.941224098205502</v>
       </c>
       <c r="C11" s="3">
-        <v>47.360285282135003</v>
+        <v>25.1782708168029</v>
       </c>
       <c r="D11" s="3">
         <v>22.374205112457201</v>
       </c>
       <c r="E11" s="3">
-        <v>56.941224098205502</v>
+        <v>17.343280076980498</v>
       </c>
       <c r="F11" s="3">
-        <v>36.004748642444554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24.832571268081601</v>
+      </c>
+      <c r="G11" s="3">
+        <v>101.502432465553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2.75</v>
       </c>
       <c r="B12" s="3">
-        <v>17.154559373855498</v>
+        <v>61.706878185272203</v>
       </c>
       <c r="C12" s="3">
-        <v>59.536149024963301</v>
+        <v>23.919715404510399</v>
       </c>
       <c r="D12" s="3">
         <v>20.610145568847599</v>
       </c>
       <c r="E12" s="3">
-        <v>61.706878185272203</v>
+        <v>17.154559373855498</v>
       </c>
       <c r="F12" s="3">
-        <v>39.751933038234654</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28.541215419769198</v>
+      </c>
+      <c r="G12" s="3">
+        <v>56.551236152648855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>3</v>
       </c>
       <c r="B13" s="3">
-        <v>19.588059425354</v>
+        <v>60.993486881256104</v>
       </c>
       <c r="C13" s="3">
-        <v>85.412767410278306</v>
+        <v>24.954399585723799</v>
       </c>
       <c r="D13" s="3">
         <v>19.7379839420318</v>
       </c>
       <c r="E13" s="3">
-        <v>60.993486881256104</v>
+        <v>19.588059425354</v>
       </c>
       <c r="F13" s="3">
-        <v>46.433074414730058</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33.117770671844397</v>
+      </c>
+      <c r="G13" s="3">
+        <v>100.37690353393515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>3.25</v>
       </c>
       <c r="B14" s="3">
-        <v>22.273765563964801</v>
+        <v>69.189179897308307</v>
       </c>
       <c r="C14" s="3">
-        <v>98.907421827316199</v>
+        <v>28.3087012767791</v>
       </c>
       <c r="D14" s="3">
         <v>24.303610086441001</v>
       </c>
       <c r="E14" s="3">
-        <v>69.189179897308307</v>
+        <v>22.273765563964801</v>
       </c>
       <c r="F14" s="3">
-        <v>53.668494343757573</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>35.261115312576202</v>
+      </c>
+      <c r="G14" s="3">
+        <v>98.907421827316199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>3.5</v>
       </c>
       <c r="B15" s="3">
-        <v>25.264592885970998</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>67.567392587661701</v>
+      </c>
+      <c r="C15" s="3">
+        <v>27.370328664779599</v>
+      </c>
       <c r="D15" s="3">
         <v>21.096651315689002</v>
       </c>
       <c r="E15" s="3">
-        <v>67.567392587661701</v>
+        <v>25.264592885970998</v>
       </c>
       <c r="F15" s="3">
-        <v>37.976212263107236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45.303569316863999</v>
+      </c>
+      <c r="G15" s="3">
+        <v>96.676815986633301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>3.75</v>
       </c>
       <c r="B16" s="3">
-        <v>25.002454996109002</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>72.804890155792194</v>
+      </c>
+      <c r="C16" s="3">
+        <v>31.742808341979899</v>
+      </c>
       <c r="D16" s="3">
         <v>24.880156993865899</v>
       </c>
       <c r="E16" s="3">
-        <v>72.804890155792194</v>
+        <v>25.002454996109002</v>
       </c>
       <c r="F16" s="3">
-        <v>40.89583404858903</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52.9671437740325</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>4</v>
       </c>
       <c r="B17" s="3">
-        <v>35.371609449386597</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>77.508102655410696</v>
+      </c>
+      <c r="C17" s="3">
+        <v>30.3498308658599</v>
+      </c>
       <c r="D17" s="3">
         <v>28.2887139320373</v>
       </c>
       <c r="E17" s="3">
-        <v>77.508102655410696</v>
+        <v>35.371609449386597</v>
       </c>
       <c r="F17" s="3">
-        <v>47.056142012278201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45.702159166336003</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>4.25</v>
       </c>
       <c r="B18" s="3">
-        <v>33.7634596824646</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>87.173752784729004</v>
+      </c>
+      <c r="C18" s="3">
+        <v>36.6231622695922</v>
+      </c>
       <c r="D18" s="3">
         <v>30.504411458969098</v>
       </c>
       <c r="E18" s="3">
-        <v>87.173752784729004</v>
+        <v>33.7634596824646</v>
       </c>
       <c r="F18" s="3">
-        <v>50.480541308720909</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59.788194179534898</v>
+      </c>
+      <c r="G18" s="3">
+        <v>100.326340436935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>4.5</v>
       </c>
       <c r="B19" s="3">
-        <v>37.409434556961003</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>86.040093421936007</v>
+      </c>
+      <c r="C19" s="3">
+        <v>37.3890380859375</v>
+      </c>
       <c r="D19" s="3">
         <v>31.158754587173402</v>
       </c>
       <c r="E19" s="3">
-        <v>86.040093421936007</v>
+        <v>37.409434556961003</v>
       </c>
       <c r="F19" s="3">
-        <v>51.536094188690136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>81.0203404426574</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>4.75</v>
       </c>
       <c r="B20" s="3">
-        <v>42.546432733535703</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>87.930086374282794</v>
+      </c>
+      <c r="C20" s="3">
+        <v>36.461868524551299</v>
+      </c>
       <c r="D20" s="3">
         <v>32.853588104247997</v>
       </c>
       <c r="E20" s="3">
-        <v>87.930086374282794</v>
+        <v>42.546432733535703</v>
       </c>
       <c r="F20" s="3">
-        <v>54.443369070688824</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>73.123734235763493</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>5</v>
       </c>
       <c r="B21" s="3">
-        <v>37.138011932372997</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>93.538769483566199</v>
+      </c>
+      <c r="C21" s="3">
+        <v>40.4351999759674</v>
+      </c>
       <c r="D21" s="3">
         <v>36.688994884490903</v>
       </c>
       <c r="E21" s="3">
-        <v>93.538769483566199</v>
+        <v>37.138011932372997</v>
       </c>
       <c r="F21" s="3">
-        <v>55.788592100143369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56.879444599151597</v>
+      </c>
+      <c r="G21" s="3">
+        <v>180.35612273216199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>5.25</v>
       </c>
       <c r="B22" s="3">
-        <v>61.924874305725098</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>99.567926168441701</v>
+      </c>
+      <c r="C22" s="3">
+        <v>41.082568883895803</v>
+      </c>
       <c r="D22" s="3">
         <v>36.996693134307797</v>
       </c>
       <c r="E22" s="3">
-        <v>99.567926168441701</v>
+        <v>61.924874305725098</v>
       </c>
       <c r="F22" s="3">
-        <v>66.163164536158206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95.570771217346106</v>
+      </c>
+      <c r="G22" s="3">
+        <v>156.011006593704</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>5.5</v>
       </c>
       <c r="B23" s="3">
-        <v>41.977286815643303</v>
-      </c>
-      <c r="C23" s="3"/>
+        <v>87.224711179733205</v>
+      </c>
+      <c r="C23" s="3">
+        <v>42.059958219528198</v>
+      </c>
       <c r="D23" s="3">
         <v>34.296464920043903</v>
       </c>
       <c r="E23" s="3">
-        <v>87.224711179733205</v>
+        <v>41.977286815643303</v>
       </c>
       <c r="F23" s="3">
-        <v>54.499487638473475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>122.830649852752</v>
+      </c>
+      <c r="G23" s="3">
+        <v>95.2771990299224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>5.75</v>
       </c>
       <c r="B24" s="3">
-        <v>51.327269792556699</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>95.241794109344397</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44.0592267513275</v>
+      </c>
       <c r="D24" s="3">
         <v>47.2457242012023</v>
       </c>
       <c r="E24" s="3">
-        <v>95.241794109344397</v>
+        <v>51.327269792556699</v>
       </c>
       <c r="F24" s="3">
-        <v>64.604929367701132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>106.807296037673</v>
+      </c>
+      <c r="G24" s="3">
+        <v>146.46621561050401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>6</v>
       </c>
       <c r="B25" s="3">
-        <v>44.859390735626199</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>101.506627559661</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45.067625284194897</v>
+      </c>
       <c r="D25" s="3">
         <v>40.6429796218872</v>
       </c>
       <c r="E25" s="3">
-        <v>101.506627559661</v>
+        <v>44.859390735626199</v>
       </c>
       <c r="F25" s="3">
-        <v>62.336332639058128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>146.43914270401001</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>6.25</v>
       </c>
       <c r="B26" s="3">
-        <v>55.606251001357997</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>111.94447684287999</v>
+      </c>
+      <c r="C26" s="3">
+        <v>55.857061624526899</v>
+      </c>
       <c r="D26" s="3">
         <v>51.017232656478797</v>
       </c>
       <c r="E26" s="3">
-        <v>111.94447684287999</v>
+        <v>55.606251001357997</v>
       </c>
       <c r="F26" s="3">
-        <v>72.85598683357226</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>74.133693456649695</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>6.5</v>
       </c>
       <c r="B27" s="3">
-        <v>61.436071872711103</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>114.633072853088</v>
+      </c>
+      <c r="C27" s="3">
+        <v>48.132522583007798</v>
+      </c>
       <c r="D27" s="3">
         <v>43.097386598587001</v>
       </c>
       <c r="E27" s="3">
-        <v>114.633072853088</v>
+        <v>61.436071872711103</v>
       </c>
       <c r="F27" s="3">
-        <v>73.055510441462033</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>71.546183586120605</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>6.75</v>
       </c>
       <c r="B28" s="3">
-        <v>50.280921697616499</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>114.82565164566</v>
+      </c>
+      <c r="C28" s="3">
+        <v>54.675878524780202</v>
+      </c>
       <c r="D28" s="3">
         <v>49.959077119827199</v>
       </c>
       <c r="E28" s="3">
-        <v>114.82565164566</v>
+        <v>50.280921697616499</v>
       </c>
       <c r="F28" s="3">
-        <v>71.688550154367903</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>115.163269281387</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>7</v>
       </c>
       <c r="B29" s="3">
-        <v>70.019817590713501</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>116.88859081268301</v>
+      </c>
+      <c r="C29" s="3">
+        <v>55.664847373962402</v>
+      </c>
       <c r="D29" s="3">
         <v>55.529902219772303</v>
       </c>
       <c r="E29" s="3">
-        <v>116.88859081268301</v>
+        <v>70.019817590713501</v>
       </c>
       <c r="F29" s="3">
-        <v>80.812770207722949</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>163.00628209114001</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>7.25</v>
       </c>
       <c r="B30" s="3">
-        <v>60.123617649078298</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>126.224202632904</v>
+      </c>
+      <c r="C30" s="3">
+        <v>59.980394601821899</v>
+      </c>
       <c r="D30" s="3">
         <v>59.526987314224201</v>
       </c>
       <c r="E30" s="3">
-        <v>126.224202632904</v>
+        <v>60.123617649078298</v>
       </c>
       <c r="F30" s="3">
-        <v>81.958269198735493</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>122.18419766426</v>
+      </c>
+      <c r="G30" s="3">
+        <v>147.09373426437301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>7.5</v>
       </c>
       <c r="B31" s="3">
-        <v>66.924064159393296</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>123.18868279457</v>
+      </c>
+      <c r="C31" s="3">
+        <v>61.325815916061401</v>
+      </c>
       <c r="D31" s="3">
         <v>55.831370115280102</v>
       </c>
       <c r="E31" s="3">
-        <v>123.18868279457</v>
+        <v>66.924064159393296</v>
       </c>
       <c r="F31" s="3">
-        <v>81.981372356414468</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>129.16840696334799</v>
+      </c>
+      <c r="G31" s="3">
+        <v>190.31878590583801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>7.75</v>
       </c>
       <c r="B32" s="3">
-        <v>69.155040740966797</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>127.831136226654</v>
+      </c>
+      <c r="C32" s="3">
+        <v>57.913432121276799</v>
+      </c>
       <c r="D32" s="3">
         <v>52.334969758987398</v>
       </c>
       <c r="E32" s="3">
-        <v>127.831136226654</v>
+        <v>69.155040740966797</v>
       </c>
       <c r="F32" s="3">
-        <v>83.107048908869402</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>123.59911060333199</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>8</v>
       </c>
       <c r="B33" s="3">
-        <v>86.896429061889606</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>129.64400863647401</v>
+      </c>
+      <c r="C33" s="3">
+        <v>58.868556261062601</v>
+      </c>
       <c r="D33" s="3">
         <v>75.219963788986206</v>
       </c>
       <c r="E33" s="3">
-        <v>129.64400863647401</v>
+        <v>86.896429061889606</v>
       </c>
       <c r="F33" s="3">
-        <v>97.253467162449923</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>130.94869899749699</v>
+      </c>
+      <c r="G33" s="3">
+        <v>194.682267427444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>8.25</v>
       </c>
       <c r="B34" s="3">
-        <v>79.836974143981905</v>
-      </c>
-      <c r="C34" s="3"/>
+        <v>147.615255594253</v>
+      </c>
+      <c r="C34" s="3">
+        <v>79.365554094314504</v>
+      </c>
       <c r="D34" s="3">
         <v>79.173254966735797</v>
       </c>
       <c r="E34" s="3">
-        <v>147.615255594253</v>
+        <v>79.836974143981905</v>
       </c>
       <c r="F34" s="3">
-        <v>102.20849490165692</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>130.67336940765301</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>8.5</v>
       </c>
       <c r="B35" s="3">
-        <v>68.595225095748901</v>
-      </c>
-      <c r="C35" s="3"/>
+        <v>149.85689306259101</v>
+      </c>
+      <c r="C35" s="3">
+        <v>74.312783718109102</v>
+      </c>
       <c r="D35" s="3">
         <v>67.938812971115098</v>
       </c>
       <c r="E35" s="3">
-        <v>149.85689306259101</v>
+        <v>68.595225095748901</v>
       </c>
       <c r="F35" s="3">
-        <v>95.463643709818328</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>101.84584879875101</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>8.75</v>
       </c>
       <c r="B36" s="3">
-        <v>97.389328479766803</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>148.30531454086301</v>
+      </c>
+      <c r="C36" s="3">
+        <v>76.8449418544769</v>
+      </c>
       <c r="D36" s="3">
         <v>82.933638334274207</v>
       </c>
       <c r="E36" s="3">
-        <v>148.30531454086301</v>
+        <v>97.389328479766803</v>
       </c>
       <c r="F36" s="3">
-        <v>109.54276045163469</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>162.81708645820601</v>
+      </c>
+      <c r="G36" s="3">
+        <v>226.48857092857301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>9</v>
       </c>
       <c r="B37" s="3">
-        <v>85.223675489425602</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>142.73915314674301</v>
+      </c>
+      <c r="C37" s="3">
+        <v>71.0394189357757</v>
+      </c>
       <c r="D37" s="3">
         <v>77.427882671356201</v>
       </c>
       <c r="E37" s="3">
-        <v>142.73915314674301</v>
+        <v>85.223675489425602</v>
       </c>
       <c r="F37" s="3">
-        <v>101.79690376917495</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>145.57870435714699</v>
+      </c>
+      <c r="G37" s="3">
+        <v>190.836321830749</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>9.25</v>
       </c>
       <c r="B38" s="3">
-        <v>98.452417135238605</v>
-      </c>
-      <c r="C38" s="3"/>
+        <v>160.08880734443599</v>
+      </c>
+      <c r="C38" s="3">
+        <v>82.976948022842393</v>
+      </c>
       <c r="D38" s="3">
         <v>68.249378681182804</v>
       </c>
       <c r="E38" s="3">
-        <v>160.08880734443599</v>
+        <v>98.452417135238605</v>
       </c>
       <c r="F38" s="3">
-        <v>108.93020105361911</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>183.04279160499499</v>
+      </c>
+      <c r="G38" s="3">
+        <v>155.496073246002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>9.5</v>
       </c>
       <c r="B39" s="3">
-        <v>77.939637184142995</v>
-      </c>
-      <c r="C39" s="3"/>
+        <v>163.291986703872</v>
+      </c>
+      <c r="C39" s="3">
+        <v>84.550420999526906</v>
+      </c>
       <c r="D39" s="3">
         <v>77.124211072921696</v>
       </c>
       <c r="E39" s="3">
-        <v>163.291986703872</v>
+        <v>77.939637184142995</v>
       </c>
       <c r="F39" s="3">
-        <v>106.11861165364557</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>130.00078248977599</v>
+      </c>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>9.75</v>
       </c>
       <c r="B40" s="3">
-        <v>87.854616641998206</v>
-      </c>
-      <c r="C40" s="3"/>
+        <v>168.548638105392</v>
+      </c>
+      <c r="C40" s="3">
+        <v>87.192331075668307</v>
+      </c>
       <c r="D40" s="3">
         <v>79.3232133388519</v>
       </c>
       <c r="E40" s="3">
-        <v>168.548638105392</v>
+        <v>87.854616641998206</v>
       </c>
       <c r="F40" s="3">
-        <v>111.90882269541403</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="3">
-        <v>47.644568834039866</v>
-      </c>
-      <c r="C41" s="3">
-        <v>68.833211445808288</v>
-      </c>
-      <c r="D41" s="3">
-        <v>42.127030822965793</v>
-      </c>
-      <c r="E41" s="3">
-        <v>98.756912893718933</v>
-      </c>
-      <c r="F41" s="3">
-        <v>63.350496324442091</v>
+        <v>199.349837303161</v>
+      </c>
+      <c r="G40" s="3">
+        <v>220.67334914207399</v>
       </c>
     </row>
   </sheetData>
@@ -5216,10 +6368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H212"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="G206" sqref="G206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6197,7 +7349,7 @@
         <v>43.616012096405001</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38">
         <v>0.96000969999999997</v>
@@ -6223,7 +7375,7 @@
         <v>107.00593137740999</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39">
         <v>0.96008439999999995</v>
@@ -6249,7 +7401,7 @@
         <v>53.214391946792603</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40">
         <v>0.96019184999999996</v>
@@ -6275,7 +7427,7 @@
         <v>38.7791104316711</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41">
         <v>0.96004999999999996</v>
@@ -6301,7 +7453,7 @@
         <v>56.266476631164501</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42">
         <v>0.96027269999999998</v>
@@ -6327,7 +7479,7 @@
         <v>98.233568429946899</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43">
         <v>0.96010154000000003</v>
@@ -6353,7 +7505,7 @@
         <v>47.360285282135003</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44">
         <v>0.96007586</v>
@@ -6379,7 +7531,7 @@
         <v>59.536149024963301</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45">
         <v>0.96024120000000002</v>
@@ -6405,7 +7557,7 @@
         <v>85.412767410278306</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>0.9604085</v>
@@ -6431,7 +7583,7 @@
         <v>98.907421827316199</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <v>0.96031250000000001</v>
@@ -6457,7 +7609,7 @@
         <v>10.8962569236755</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48">
         <v>0.96005713999999998</v>
@@ -6483,7 +7635,7 @@
         <v>14.022767066955501</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49">
         <v>0.96172310000000005</v>
@@ -6509,7 +7661,7 @@
         <v>15.207643508911101</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50">
         <v>0.96196926000000005</v>
@@ -6535,7 +7687,7 @@
         <v>15.558344125747601</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51">
         <v>0.96120000000000005</v>
@@ -6561,7 +7713,7 @@
         <v>16.471377134323099</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52">
         <v>0.96141666000000003</v>
@@ -6587,7 +7739,7 @@
         <v>18.050361394882199</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53">
         <v>0.96030910000000003</v>
@@ -6613,7 +7765,7 @@
         <v>22.374205112457201</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D54">
         <v>0.96101539999999996</v>
@@ -6639,7 +7791,7 @@
         <v>20.610145568847599</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55">
         <v>0.96134542999999995</v>
@@ -6665,7 +7817,7 @@
         <v>19.7379839420318</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56">
         <v>0.96206000000000003</v>
@@ -6691,7 +7843,7 @@
         <v>24.303610086441001</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57">
         <v>0.96123636000000001</v>
@@ -6717,7 +7869,7 @@
         <v>21.096651315689002</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58">
         <v>0.96137779999999995</v>
@@ -6743,7 +7895,7 @@
         <v>24.880156993865899</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59">
         <v>0.96216000000000002</v>
@@ -6769,7 +7921,7 @@
         <v>28.2887139320373</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60">
         <v>0.96085452999999998</v>
@@ -6795,7 +7947,7 @@
         <v>30.504411458969098</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61">
         <v>0.96016000000000001</v>
@@ -6821,7 +7973,7 @@
         <v>31.158754587173402</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62">
         <v>0.96053999999999995</v>
@@ -6847,7 +7999,7 @@
         <v>32.853588104247997</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63">
         <v>0.96094000000000002</v>
@@ -6873,7 +8025,7 @@
         <v>36.688994884490903</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64">
         <v>0.96021820000000002</v>
@@ -6899,7 +8051,7 @@
         <v>36.996693134307797</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65">
         <v>0.96131999999999995</v>
@@ -6925,7 +8077,7 @@
         <v>34.296464920043903</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66">
         <v>0.9602444</v>
@@ -6951,7 +8103,7 @@
         <v>47.2457242012023</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D67">
         <v>0.96199999999999997</v>
@@ -6977,7 +8129,7 @@
         <v>40.6429796218872</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68">
         <v>0.96106000000000003</v>
@@ -7003,7 +8155,7 @@
         <v>51.017232656478797</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69">
         <v>0.96120000000000005</v>
@@ -7029,7 +8181,7 @@
         <v>43.097386598587001</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70">
         <v>0.96053330000000003</v>
@@ -7055,7 +8207,7 @@
         <v>49.959077119827199</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71">
         <v>0.96135999999999999</v>
@@ -7081,7 +8233,7 @@
         <v>55.529902219772303</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72">
         <v>0.96198183000000004</v>
@@ -7107,7 +8259,7 @@
         <v>59.526987314224201</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73">
         <v>0.96049090000000004</v>
@@ -7133,7 +8285,7 @@
         <v>55.831370115280102</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74">
         <v>0.96140000000000003</v>
@@ -7159,7 +8311,7 @@
         <v>52.334969758987398</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75">
         <v>0.96213335</v>
@@ -7185,7 +8337,7 @@
         <v>75.219963788986206</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D76">
         <v>0.96155389999999996</v>
@@ -7211,7 +8363,7 @@
         <v>79.173254966735797</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77">
         <v>0.96140000000000003</v>
@@ -7237,7 +8389,7 @@
         <v>67.938812971115098</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78">
         <v>0.96252000000000004</v>
@@ -7263,7 +8415,7 @@
         <v>82.933638334274207</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D79">
         <v>0.96158330000000003</v>
@@ -7289,7 +8441,7 @@
         <v>77.427882671356201</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D80">
         <v>0.96107273999999998</v>
@@ -7315,7 +8467,7 @@
         <v>68.249378681182804</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81">
         <v>0.96006670000000005</v>
@@ -7341,7 +8493,7 @@
         <v>77.124211072921696</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82">
         <v>0.96043999999999996</v>
@@ -7367,7 +8519,7 @@
         <v>79.3232133388519</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83">
         <v>0.96106000000000003</v>
@@ -7393,7 +8545,7 @@
         <v>39.355426073074298</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D84">
         <v>0.96030740000000003</v>
@@ -7419,7 +8571,7 @@
         <v>46.877059936523402</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D85">
         <v>0.96016955000000004</v>
@@ -7445,7 +8597,7 @@
         <v>49.933603525161701</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D86">
         <v>0.96049779999999996</v>
@@ -7471,7 +8623,7 @@
         <v>53.021516561508101</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D87">
         <v>0.96062325999999998</v>
@@ -7497,7 +8649,7 @@
         <v>55.112878799438398</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88">
         <v>0.96046189999999998</v>
@@ -7523,7 +8675,7 @@
         <v>60.387592792510901</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D89">
         <v>0.96023159999999996</v>
@@ -7549,7 +8701,7 @@
         <v>56.941224098205502</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D90">
         <v>0.96027649999999998</v>
@@ -7575,7 +8727,7 @@
         <v>61.706878185272203</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D91">
         <v>0.96038824</v>
@@ -7601,7 +8753,7 @@
         <v>60.993486881256104</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D92">
         <v>0.96054375000000003</v>
@@ -7627,7 +8779,7 @@
         <v>69.189179897308307</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D93">
         <v>0.96050000000000002</v>
@@ -7653,7 +8805,7 @@
         <v>67.567392587661701</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94">
         <v>0.96043999999999996</v>
@@ -7679,7 +8831,7 @@
         <v>72.804890155792194</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D95">
         <v>0.96079999999999999</v>
@@ -7705,7 +8857,7 @@
         <v>77.508102655410696</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D96">
         <v>0.96068390000000004</v>
@@ -7731,7 +8883,7 @@
         <v>87.173752784729004</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D97">
         <v>0.96073794000000001</v>
@@ -7757,7 +8909,7 @@
         <v>86.040093421936007</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D98">
         <v>0.96057855999999997</v>
@@ -7783,7 +8935,7 @@
         <v>87.930086374282794</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D99">
         <v>0.96075549999999998</v>
@@ -7809,7 +8961,7 @@
         <v>93.538769483566199</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D100">
         <v>0.96060000000000001</v>
@@ -7835,7 +8987,7 @@
         <v>99.567926168441701</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D101">
         <v>0.96038520000000005</v>
@@ -7861,7 +9013,7 @@
         <v>87.224711179733205</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D102">
         <v>0.96000870000000005</v>
@@ -7887,7 +9039,7 @@
         <v>95.241794109344397</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D103">
         <v>0.96069170000000004</v>
@@ -7913,7 +9065,7 @@
         <v>101.506627559661</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D104">
         <v>0.960704</v>
@@ -7939,7 +9091,7 @@
         <v>111.94447684287999</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D105">
         <v>0.96068335000000005</v>
@@ -7965,7 +9117,7 @@
         <v>114.633072853088</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D106">
         <v>0.96047499999999997</v>
@@ -7991,7 +9143,7 @@
         <v>114.82565164566</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D107">
         <v>0.96101740000000002</v>
@@ -8017,7 +9169,7 @@
         <v>116.88859081268301</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D108">
         <v>0.96009564000000003</v>
@@ -8043,7 +9195,7 @@
         <v>126.224202632904</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D109">
         <v>0.96042609999999995</v>
@@ -8069,7 +9221,7 @@
         <v>123.18868279457</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110">
         <v>0.96042729999999998</v>
@@ -8095,7 +9247,7 @@
         <v>127.831136226654</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111">
         <v>0.96094539999999995</v>
@@ -8121,7 +9273,7 @@
         <v>129.64400863647401</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112">
         <v>0.96102726000000005</v>
@@ -8147,7 +9299,7 @@
         <v>147.615255594253</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D113">
         <v>0.96092725000000001</v>
@@ -8173,7 +9325,7 @@
         <v>149.85689306259101</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114">
         <v>0.96100909999999995</v>
@@ -8199,7 +9351,7 @@
         <v>148.30531454086301</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115">
         <v>0.9609048</v>
@@ -8225,7 +9377,7 @@
         <v>142.73915314674301</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D116">
         <v>0.96016000000000001</v>
@@ -8251,7 +9403,7 @@
         <v>160.08880734443599</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D117">
         <v>0.96071430000000002</v>
@@ -8277,7 +9429,7 @@
         <v>163.291986703872</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118">
         <v>0.96071430000000002</v>
@@ -8303,7 +9455,7 @@
         <v>168.548638105392</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119">
         <v>0.96033334999999997</v>
@@ -8319,6 +9471,2424 @@
       </c>
       <c r="H119">
         <v>168.548638105392</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>14.9573395252227</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120">
+        <v>0.96040999999999999</v>
+      </c>
+      <c r="E120">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>14.9573395252227</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1.25</v>
+      </c>
+      <c r="B121">
+        <v>18.0163474082946</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121">
+        <v>0.96016469999999998</v>
+      </c>
+      <c r="E121">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F121" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121">
+        <v>1.25</v>
+      </c>
+      <c r="H121">
+        <v>18.0163474082946</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1.5</v>
+      </c>
+      <c r="B122">
+        <v>19.762069225311201</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122">
+        <v>0.96131765999999996</v>
+      </c>
+      <c r="E122">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F122" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122">
+        <v>1.5</v>
+      </c>
+      <c r="H122">
+        <v>19.762069225311201</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1.75</v>
+      </c>
+      <c r="B123">
+        <v>19.2198550701141</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123">
+        <v>0.96098669999999997</v>
+      </c>
+      <c r="E123">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F123" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123">
+        <v>1.75</v>
+      </c>
+      <c r="H123">
+        <v>19.2198550701141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124">
+        <v>21.611127614974901</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124">
+        <v>0.96038749999999995</v>
+      </c>
+      <c r="E124">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124">
+        <v>2</v>
+      </c>
+      <c r="H124">
+        <v>21.611127614974901</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>2.25</v>
+      </c>
+      <c r="B125">
+        <v>23.822999715805</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125">
+        <v>0.96104000000000001</v>
+      </c>
+      <c r="E125">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F125" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125">
+        <v>2.25</v>
+      </c>
+      <c r="H125">
+        <v>23.822999715805</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>2.5</v>
+      </c>
+      <c r="B126">
+        <v>25.1782708168029</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126">
+        <v>0.96189329999999995</v>
+      </c>
+      <c r="E126">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F126" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126">
+        <v>2.5</v>
+      </c>
+      <c r="H126">
+        <v>25.1782708168029</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>2.75</v>
+      </c>
+      <c r="B127">
+        <v>23.919715404510399</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127">
+        <v>0.96067689999999994</v>
+      </c>
+      <c r="E127">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127">
+        <v>2.75</v>
+      </c>
+      <c r="H127">
+        <v>23.919715404510399</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <v>24.954399585723799</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128">
+        <v>0.96007690000000001</v>
+      </c>
+      <c r="E128">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F128" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128">
+        <v>3</v>
+      </c>
+      <c r="H128">
+        <v>24.954399585723799</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>3.25</v>
+      </c>
+      <c r="B129">
+        <v>28.3087012767791</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129">
+        <v>0.96041536000000005</v>
+      </c>
+      <c r="E129">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F129" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129">
+        <v>3.25</v>
+      </c>
+      <c r="H129">
+        <v>28.3087012767791</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>3.5</v>
+      </c>
+      <c r="B130">
+        <v>27.370328664779599</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130">
+        <v>0.96020000000000005</v>
+      </c>
+      <c r="E130">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130">
+        <v>3.5</v>
+      </c>
+      <c r="H130">
+        <v>27.370328664779599</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>3.75</v>
+      </c>
+      <c r="B131">
+        <v>31.742808341979899</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131">
+        <v>0.96024615000000002</v>
+      </c>
+      <c r="E131">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131">
+        <v>3.75</v>
+      </c>
+      <c r="H131">
+        <v>31.742808341979899</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>4</v>
+      </c>
+      <c r="B132">
+        <v>30.3498308658599</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132">
+        <v>0.96013329999999997</v>
+      </c>
+      <c r="E132">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F132" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132">
+        <v>4</v>
+      </c>
+      <c r="H132">
+        <v>30.3498308658599</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>4.25</v>
+      </c>
+      <c r="B133">
+        <v>36.6231622695922</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133">
+        <v>0.96121670000000003</v>
+      </c>
+      <c r="E133">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F133" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133">
+        <v>4.25</v>
+      </c>
+      <c r="H133">
+        <v>36.6231622695922</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>4.5</v>
+      </c>
+      <c r="B134">
+        <v>37.3890380859375</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134">
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="E134">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F134" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134">
+        <v>4.5</v>
+      </c>
+      <c r="H134">
+        <v>37.3890380859375</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>4.75</v>
+      </c>
+      <c r="B135">
+        <v>36.461868524551299</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135">
+        <v>0.96058184000000002</v>
+      </c>
+      <c r="E135">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F135" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135">
+        <v>4.75</v>
+      </c>
+      <c r="H135">
+        <v>36.461868524551299</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>5</v>
+      </c>
+      <c r="B136">
+        <v>40.4351999759674</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136">
+        <v>0.96138334000000003</v>
+      </c>
+      <c r="E136">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F136" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136">
+        <v>5</v>
+      </c>
+      <c r="H136">
+        <v>40.4351999759674</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>5.25</v>
+      </c>
+      <c r="B137">
+        <v>41.082568883895803</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137">
+        <v>0.96032726999999996</v>
+      </c>
+      <c r="E137">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F137" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137">
+        <v>5.25</v>
+      </c>
+      <c r="H137">
+        <v>41.082568883895803</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>5.5</v>
+      </c>
+      <c r="B138">
+        <v>42.059958219528198</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138">
+        <v>0.96067274000000002</v>
+      </c>
+      <c r="E138">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F138" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138">
+        <v>5.5</v>
+      </c>
+      <c r="H138">
+        <v>42.059958219528198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>5.75</v>
+      </c>
+      <c r="B139">
+        <v>44.0592267513275</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139">
+        <v>0.96143639999999997</v>
+      </c>
+      <c r="E139">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F139" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139">
+        <v>5.75</v>
+      </c>
+      <c r="H139">
+        <v>44.0592267513275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>6</v>
+      </c>
+      <c r="B140">
+        <v>45.067625284194897</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140">
+        <v>0.96069090000000001</v>
+      </c>
+      <c r="E140">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F140" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140">
+        <v>6</v>
+      </c>
+      <c r="H140">
+        <v>45.067625284194897</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>6.25</v>
+      </c>
+      <c r="B141">
+        <v>55.857061624526899</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141">
+        <v>0.9615167</v>
+      </c>
+      <c r="E141">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F141" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141">
+        <v>6.25</v>
+      </c>
+      <c r="H141">
+        <v>55.857061624526899</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>6.5</v>
+      </c>
+      <c r="B142">
+        <v>48.132522583007798</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142">
+        <v>0.96004</v>
+      </c>
+      <c r="E142">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142">
+        <v>6.5</v>
+      </c>
+      <c r="H142">
+        <v>48.132522583007798</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>6.75</v>
+      </c>
+      <c r="B143">
+        <v>54.675878524780202</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143">
+        <v>0.96056366000000004</v>
+      </c>
+      <c r="E143">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143">
+        <v>6.75</v>
+      </c>
+      <c r="H143">
+        <v>54.675878524780202</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>7</v>
+      </c>
+      <c r="B144">
+        <v>55.664847373962402</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144">
+        <v>0.96067274000000002</v>
+      </c>
+      <c r="E144">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F144" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144">
+        <v>7</v>
+      </c>
+      <c r="H144">
+        <v>55.664847373962402</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>7.25</v>
+      </c>
+      <c r="B145">
+        <v>59.980394601821899</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145">
+        <v>0.96176360000000005</v>
+      </c>
+      <c r="E145">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F145" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145">
+        <v>7.25</v>
+      </c>
+      <c r="H145">
+        <v>59.980394601821899</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>7.5</v>
+      </c>
+      <c r="B146">
+        <v>61.325815916061401</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146">
+        <v>0.96016365000000004</v>
+      </c>
+      <c r="E146">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146">
+        <v>7.5</v>
+      </c>
+      <c r="H146">
+        <v>61.325815916061401</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>7.75</v>
+      </c>
+      <c r="B147">
+        <v>57.913432121276799</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147">
+        <v>0.96074000000000004</v>
+      </c>
+      <c r="E147">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F147" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147">
+        <v>7.75</v>
+      </c>
+      <c r="H147">
+        <v>57.913432121276799</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>8</v>
+      </c>
+      <c r="B148">
+        <v>58.868556261062601</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148">
+        <v>0.96123999999999998</v>
+      </c>
+      <c r="E148">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F148" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148">
+        <v>8</v>
+      </c>
+      <c r="H148">
+        <v>58.868556261062601</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>8.25</v>
+      </c>
+      <c r="B149">
+        <v>79.365554094314504</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149">
+        <v>0.96104999999999996</v>
+      </c>
+      <c r="E149">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F149" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149">
+        <v>8.25</v>
+      </c>
+      <c r="H149">
+        <v>79.365554094314504</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>8.5</v>
+      </c>
+      <c r="B150">
+        <v>74.312783718109102</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150">
+        <v>0.96209089999999997</v>
+      </c>
+      <c r="E150">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F150" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150">
+        <v>8.5</v>
+      </c>
+      <c r="H150">
+        <v>74.312783718109102</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>8.75</v>
+      </c>
+      <c r="B151">
+        <v>76.8449418544769</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151">
+        <v>0.96158180000000004</v>
+      </c>
+      <c r="E151">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F151" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151">
+        <v>8.75</v>
+      </c>
+      <c r="H151">
+        <v>76.8449418544769</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>9</v>
+      </c>
+      <c r="B152">
+        <v>71.0394189357757</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152">
+        <v>0.96143999999999996</v>
+      </c>
+      <c r="E152">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F152" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152">
+        <v>9</v>
+      </c>
+      <c r="H152">
+        <v>71.0394189357757</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>9.25</v>
+      </c>
+      <c r="B153">
+        <v>82.976948022842393</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153">
+        <v>0.96107273999999998</v>
+      </c>
+      <c r="E153">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F153" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153">
+        <v>9.25</v>
+      </c>
+      <c r="H153">
+        <v>82.976948022842393</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>9.5</v>
+      </c>
+      <c r="B154">
+        <v>84.550420999526906</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154">
+        <v>0.96143639999999997</v>
+      </c>
+      <c r="E154">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F154" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154">
+        <v>9.5</v>
+      </c>
+      <c r="H154">
+        <v>84.550420999526906</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>9.75</v>
+      </c>
+      <c r="B155">
+        <v>87.192331075668307</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155">
+        <v>0.96174543999999995</v>
+      </c>
+      <c r="E155">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F155" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155">
+        <v>9.75</v>
+      </c>
+      <c r="H155">
+        <v>87.192331075668307</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>12.082792043685901</v>
+      </c>
+      <c r="C156" t="s">
+        <v>17</v>
+      </c>
+      <c r="D156">
+        <v>0.96112500000000001</v>
+      </c>
+      <c r="E156">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F156" t="s">
+        <v>9</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>12.082792043685901</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>1.25</v>
+      </c>
+      <c r="B157">
+        <v>16.0479123592376</v>
+      </c>
+      <c r="C157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="E157">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F157" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157">
+        <v>1.25</v>
+      </c>
+      <c r="H157">
+        <v>16.0479123592376</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>1.5</v>
+      </c>
+      <c r="B158">
+        <v>17.355046749114901</v>
+      </c>
+      <c r="C158" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158">
+        <v>0.96172000000000002</v>
+      </c>
+      <c r="E158">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F158" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158">
+        <v>1.5</v>
+      </c>
+      <c r="H158">
+        <v>17.355046749114901</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>1.75</v>
+      </c>
+      <c r="B159">
+        <v>32.2507226467132</v>
+      </c>
+      <c r="C159" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159">
+        <v>0.96090770000000003</v>
+      </c>
+      <c r="E159">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F159" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159">
+        <v>1.75</v>
+      </c>
+      <c r="H159">
+        <v>32.2507226467132</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="B160">
+        <v>23.847128391265802</v>
+      </c>
+      <c r="C160" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160">
+        <v>0.96030000000000004</v>
+      </c>
+      <c r="E160">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F160" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160">
+        <v>2</v>
+      </c>
+      <c r="H160">
+        <v>23.847128391265802</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>2.25</v>
+      </c>
+      <c r="B161">
+        <v>31.1134417057037</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161">
+        <v>0.96026999999999996</v>
+      </c>
+      <c r="E161">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F161" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161">
+        <v>2.25</v>
+      </c>
+      <c r="H161">
+        <v>31.1134417057037</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>2.5</v>
+      </c>
+      <c r="B162">
+        <v>24.832571268081601</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162">
+        <v>0.96017330000000001</v>
+      </c>
+      <c r="E162">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F162" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162">
+        <v>2.5</v>
+      </c>
+      <c r="H162">
+        <v>24.832571268081601</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>2.75</v>
+      </c>
+      <c r="B163">
+        <v>28.541215419769198</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163">
+        <v>0.96038749999999995</v>
+      </c>
+      <c r="E163">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F163" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163">
+        <v>2.75</v>
+      </c>
+      <c r="H163">
+        <v>28.541215419769198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>3</v>
+      </c>
+      <c r="B164">
+        <v>33.117770671844397</v>
+      </c>
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164">
+        <v>0.96007776</v>
+      </c>
+      <c r="E164">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F164" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
+      <c r="H164">
+        <v>33.117770671844397</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>3.25</v>
+      </c>
+      <c r="B165">
+        <v>35.261115312576202</v>
+      </c>
+      <c r="C165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165">
+        <v>0.96114116999999999</v>
+      </c>
+      <c r="E165">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F165" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165">
+        <v>3.25</v>
+      </c>
+      <c r="H165">
+        <v>35.261115312576202</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>3.5</v>
+      </c>
+      <c r="B166">
+        <v>45.303569316863999</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166">
+        <v>0.96043809999999996</v>
+      </c>
+      <c r="E166">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F166" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166">
+        <v>3.5</v>
+      </c>
+      <c r="H166">
+        <v>45.303569316863999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>3.75</v>
+      </c>
+      <c r="B167">
+        <v>52.9671437740325</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167">
+        <v>0.96073914000000005</v>
+      </c>
+      <c r="E167">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F167" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167">
+        <v>3.75</v>
+      </c>
+      <c r="H167">
+        <v>52.9671437740325</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>4</v>
+      </c>
+      <c r="B168">
+        <v>45.702159166336003</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168">
+        <v>0.96076839999999997</v>
+      </c>
+      <c r="E168">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F168" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168">
+        <v>4</v>
+      </c>
+      <c r="H168">
+        <v>45.702159166336003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>4.25</v>
+      </c>
+      <c r="B169">
+        <v>59.788194179534898</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169">
+        <v>0.96074283000000005</v>
+      </c>
+      <c r="E169">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F169" t="s">
+        <v>9</v>
+      </c>
+      <c r="G169">
+        <v>4.25</v>
+      </c>
+      <c r="H169">
+        <v>59.788194179534898</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>4.5</v>
+      </c>
+      <c r="B170">
+        <v>81.0203404426574</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170">
+        <v>0.96040000000000003</v>
+      </c>
+      <c r="E170">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F170" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170">
+        <v>4.5</v>
+      </c>
+      <c r="H170">
+        <v>81.0203404426574</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>4.75</v>
+      </c>
+      <c r="B171">
+        <v>73.123734235763493</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171">
+        <v>0.96014999999999995</v>
+      </c>
+      <c r="E171">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F171" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171">
+        <v>4.75</v>
+      </c>
+      <c r="H171">
+        <v>73.123734235763493</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>5</v>
+      </c>
+      <c r="B172">
+        <v>56.879444599151597</v>
+      </c>
+      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172">
+        <v>0.96008890000000002</v>
+      </c>
+      <c r="E172">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F172" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172">
+        <v>5</v>
+      </c>
+      <c r="H172">
+        <v>56.879444599151597</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>5.25</v>
+      </c>
+      <c r="B173">
+        <v>95.570771217346106</v>
+      </c>
+      <c r="C173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173">
+        <v>0.96035709999999996</v>
+      </c>
+      <c r="E173">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F173" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173">
+        <v>5.25</v>
+      </c>
+      <c r="H173">
+        <v>95.570771217346106</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>5.5</v>
+      </c>
+      <c r="B174">
+        <v>122.830649852752</v>
+      </c>
+      <c r="C174" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174">
+        <v>0.9600514</v>
+      </c>
+      <c r="E174">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F174" t="s">
+        <v>9</v>
+      </c>
+      <c r="G174">
+        <v>5.5</v>
+      </c>
+      <c r="H174">
+        <v>122.830649852752</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>5.75</v>
+      </c>
+      <c r="B175">
+        <v>106.807296037673</v>
+      </c>
+      <c r="C175" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175">
+        <v>0.96081380000000005</v>
+      </c>
+      <c r="E175">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F175" t="s">
+        <v>9</v>
+      </c>
+      <c r="G175">
+        <v>5.75</v>
+      </c>
+      <c r="H175">
+        <v>106.807296037673</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>6</v>
+      </c>
+      <c r="B176">
+        <v>146.43914270401001</v>
+      </c>
+      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176">
+        <v>0.96022563999999999</v>
+      </c>
+      <c r="E176">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F176" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176">
+        <v>6</v>
+      </c>
+      <c r="H176">
+        <v>146.43914270401001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>6.25</v>
+      </c>
+      <c r="B177">
+        <v>74.133693456649695</v>
+      </c>
+      <c r="C177" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177">
+        <v>0.96062349999999996</v>
+      </c>
+      <c r="E177">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F177" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177">
+        <v>6.25</v>
+      </c>
+      <c r="H177">
+        <v>74.133693456649695</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>6.5</v>
+      </c>
+      <c r="B178">
+        <v>71.546183586120605</v>
+      </c>
+      <c r="C178" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178">
+        <v>0.96027499999999999</v>
+      </c>
+      <c r="E178">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F178" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178">
+        <v>6.5</v>
+      </c>
+      <c r="H178">
+        <v>71.546183586120605</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>6.75</v>
+      </c>
+      <c r="B179">
+        <v>115.163269281387</v>
+      </c>
+      <c r="C179" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179">
+        <v>0.96031200000000005</v>
+      </c>
+      <c r="E179">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F179" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179">
+        <v>6.75</v>
+      </c>
+      <c r="H179">
+        <v>115.163269281387</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>7</v>
+      </c>
+      <c r="B180">
+        <v>163.00628209114001</v>
+      </c>
+      <c r="C180" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180">
+        <v>0.96064574000000003</v>
+      </c>
+      <c r="E180">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F180" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180">
+        <v>7</v>
+      </c>
+      <c r="H180">
+        <v>163.00628209114001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>7.25</v>
+      </c>
+      <c r="B181">
+        <v>122.18419766426</v>
+      </c>
+      <c r="C181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181">
+        <v>0.960175</v>
+      </c>
+      <c r="E181">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F181" t="s">
+        <v>9</v>
+      </c>
+      <c r="G181">
+        <v>7.25</v>
+      </c>
+      <c r="H181">
+        <v>122.18419766426</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>7.5</v>
+      </c>
+      <c r="B182">
+        <v>129.16840696334799</v>
+      </c>
+      <c r="C182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182">
+        <v>0.96104800000000001</v>
+      </c>
+      <c r="E182">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F182" t="s">
+        <v>9</v>
+      </c>
+      <c r="G182">
+        <v>7.5</v>
+      </c>
+      <c r="H182">
+        <v>129.16840696334799</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>7.75</v>
+      </c>
+      <c r="B183">
+        <v>123.59911060333199</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183">
+        <v>0.96068699999999996</v>
+      </c>
+      <c r="E183">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F183" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183">
+        <v>7.75</v>
+      </c>
+      <c r="H183">
+        <v>123.59911060333199</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>8</v>
+      </c>
+      <c r="B184">
+        <v>130.94869899749699</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184">
+        <v>0.96065</v>
+      </c>
+      <c r="E184">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F184" t="s">
+        <v>9</v>
+      </c>
+      <c r="G184">
+        <v>8</v>
+      </c>
+      <c r="H184">
+        <v>130.94869899749699</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>8.25</v>
+      </c>
+      <c r="B185">
+        <v>130.67336940765301</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185">
+        <v>0.96092379999999999</v>
+      </c>
+      <c r="E185">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F185" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185">
+        <v>8.25</v>
+      </c>
+      <c r="H185">
+        <v>130.67336940765301</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>8.5</v>
+      </c>
+      <c r="B186">
+        <v>101.84584879875101</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186">
+        <v>0.96063750000000003</v>
+      </c>
+      <c r="E186">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F186" t="s">
+        <v>9</v>
+      </c>
+      <c r="G186">
+        <v>8.5</v>
+      </c>
+      <c r="H186">
+        <v>101.84584879875101</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>8.75</v>
+      </c>
+      <c r="B187">
+        <v>162.81708645820601</v>
+      </c>
+      <c r="C187" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187">
+        <v>0.96053599999999995</v>
+      </c>
+      <c r="E187">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F187" t="s">
+        <v>9</v>
+      </c>
+      <c r="G187">
+        <v>8.75</v>
+      </c>
+      <c r="H187">
+        <v>162.81708645820601</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>9</v>
+      </c>
+      <c r="B188">
+        <v>145.57870435714699</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188">
+        <v>0.96105456</v>
+      </c>
+      <c r="E188">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F188" t="s">
+        <v>9</v>
+      </c>
+      <c r="G188">
+        <v>9</v>
+      </c>
+      <c r="H188">
+        <v>145.57870435714699</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>9.25</v>
+      </c>
+      <c r="B189">
+        <v>183.04279160499499</v>
+      </c>
+      <c r="C189" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189">
+        <v>0.96033080000000004</v>
+      </c>
+      <c r="E189">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F189" t="s">
+        <v>9</v>
+      </c>
+      <c r="G189">
+        <v>9.25</v>
+      </c>
+      <c r="H189">
+        <v>183.04279160499499</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>9.5</v>
+      </c>
+      <c r="B190">
+        <v>130.00078248977599</v>
+      </c>
+      <c r="C190" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190">
+        <v>0.9607</v>
+      </c>
+      <c r="E190">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F190" t="s">
+        <v>9</v>
+      </c>
+      <c r="G190">
+        <v>9.5</v>
+      </c>
+      <c r="H190">
+        <v>130.00078248977599</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>9.75</v>
+      </c>
+      <c r="B191">
+        <v>199.349837303161</v>
+      </c>
+      <c r="C191" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191">
+        <v>0.96064439999999995</v>
+      </c>
+      <c r="E191">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F191" t="s">
+        <v>9</v>
+      </c>
+      <c r="G191">
+        <v>9.75</v>
+      </c>
+      <c r="H191">
+        <v>199.349837303161</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192">
+        <v>24.934641599655102</v>
+      </c>
+      <c r="C192" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192">
+        <v>0.96048</v>
+      </c>
+      <c r="E192">
+        <v>0.01</v>
+      </c>
+      <c r="F192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>24.934641599655102</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>1.5</v>
+      </c>
+      <c r="B193">
+        <v>71.8642799854278</v>
+      </c>
+      <c r="C193" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193">
+        <v>0.96007573999999996</v>
+      </c>
+      <c r="E193">
+        <v>0.01</v>
+      </c>
+      <c r="F193" t="s">
+        <v>9</v>
+      </c>
+      <c r="G193">
+        <v>1.5</v>
+      </c>
+      <c r="H193">
+        <v>71.8642799854278</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>1.75</v>
+      </c>
+      <c r="B194">
+        <v>55.694064617156897</v>
+      </c>
+      <c r="C194" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194">
+        <v>0.96029569999999997</v>
+      </c>
+      <c r="E194">
+        <v>0.01</v>
+      </c>
+      <c r="F194" t="s">
+        <v>9</v>
+      </c>
+      <c r="G194">
+        <v>1.75</v>
+      </c>
+      <c r="H194">
+        <v>55.694064617156897</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>2</v>
+      </c>
+      <c r="B195">
+        <v>95.121585607528601</v>
+      </c>
+      <c r="C195" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195">
+        <v>0.96004</v>
+      </c>
+      <c r="E195">
+        <v>0.01</v>
+      </c>
+      <c r="F195" t="s">
+        <v>9</v>
+      </c>
+      <c r="G195">
+        <v>2</v>
+      </c>
+      <c r="H195">
+        <v>95.121585607528601</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>2.25</v>
+      </c>
+      <c r="B196">
+        <v>109.291380882263</v>
+      </c>
+      <c r="C196" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196">
+        <v>0.96001369999999997</v>
+      </c>
+      <c r="E196">
+        <v>0.01</v>
+      </c>
+      <c r="F196" t="s">
+        <v>9</v>
+      </c>
+      <c r="G196">
+        <v>2.25</v>
+      </c>
+      <c r="H196">
+        <v>109.291380882263</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>2.5</v>
+      </c>
+      <c r="B197">
+        <v>155.64457964897099</v>
+      </c>
+      <c r="C197" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197">
+        <v>0.96017574999999999</v>
+      </c>
+      <c r="E197">
+        <v>0.01</v>
+      </c>
+      <c r="F197" t="s">
+        <v>9</v>
+      </c>
+      <c r="G197">
+        <v>2.5</v>
+      </c>
+      <c r="H197">
+        <v>155.64457964897099</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>2.75</v>
+      </c>
+      <c r="B198">
+        <v>53.566323280334402</v>
+      </c>
+      <c r="C198" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198">
+        <v>0.96043869999999998</v>
+      </c>
+      <c r="E198">
+        <v>0.01</v>
+      </c>
+      <c r="F198" t="s">
+        <v>9</v>
+      </c>
+      <c r="G198">
+        <v>2.75</v>
+      </c>
+      <c r="H198">
+        <v>53.566323280334402</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>3</v>
+      </c>
+      <c r="B199">
+        <v>115.34103965759201</v>
+      </c>
+      <c r="C199" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199">
+        <v>0.96017540000000001</v>
+      </c>
+      <c r="E199">
+        <v>0.01</v>
+      </c>
+      <c r="F199" t="s">
+        <v>9</v>
+      </c>
+      <c r="G199">
+        <v>3</v>
+      </c>
+      <c r="H199">
+        <v>115.34103965759201</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>3.5</v>
+      </c>
+      <c r="B200">
+        <v>96.676815986633301</v>
+      </c>
+      <c r="C200" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200">
+        <v>0.96009129999999998</v>
+      </c>
+      <c r="E200">
+        <v>0.01</v>
+      </c>
+      <c r="F200" t="s">
+        <v>9</v>
+      </c>
+      <c r="G200">
+        <v>3.5</v>
+      </c>
+      <c r="H200">
+        <v>96.676815986633301</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>4.25</v>
+      </c>
+      <c r="B201">
+        <v>100.326340436935</v>
+      </c>
+      <c r="C201" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201">
+        <v>0.96051109999999995</v>
+      </c>
+      <c r="E201">
+        <v>0.01</v>
+      </c>
+      <c r="F201" t="s">
+        <v>9</v>
+      </c>
+      <c r="G201">
+        <v>4.25</v>
+      </c>
+      <c r="H201">
+        <v>100.326340436935</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>5</v>
+      </c>
+      <c r="B202">
+        <v>180.35612273216199</v>
+      </c>
+      <c r="C202" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202">
+        <v>0.96033559999999996</v>
+      </c>
+      <c r="E202">
+        <v>0.01</v>
+      </c>
+      <c r="F202" t="s">
+        <v>9</v>
+      </c>
+      <c r="G202">
+        <v>5</v>
+      </c>
+      <c r="H202">
+        <v>180.35612273216199</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>5.25</v>
+      </c>
+      <c r="B203">
+        <v>156.011006593704</v>
+      </c>
+      <c r="C203" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203">
+        <v>0.96050000000000002</v>
+      </c>
+      <c r="E203">
+        <v>0.01</v>
+      </c>
+      <c r="F203" t="s">
+        <v>9</v>
+      </c>
+      <c r="G203">
+        <v>5.25</v>
+      </c>
+      <c r="H203">
+        <v>156.011006593704</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>5.5</v>
+      </c>
+      <c r="B204">
+        <v>95.2771990299224</v>
+      </c>
+      <c r="C204" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204">
+        <v>0.96018517000000003</v>
+      </c>
+      <c r="E204">
+        <v>0.01</v>
+      </c>
+      <c r="F204" t="s">
+        <v>9</v>
+      </c>
+      <c r="G204">
+        <v>5.5</v>
+      </c>
+      <c r="H204">
+        <v>95.2771990299224</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>5.75</v>
+      </c>
+      <c r="B205">
+        <v>146.46621561050401</v>
+      </c>
+      <c r="C205" t="s">
+        <v>13</v>
+      </c>
+      <c r="D205">
+        <v>0.96011000000000002</v>
+      </c>
+      <c r="E205">
+        <v>0.01</v>
+      </c>
+      <c r="F205" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205">
+        <v>5.75</v>
+      </c>
+      <c r="H205">
+        <v>146.46621561050401</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>7.25</v>
+      </c>
+      <c r="B206">
+        <v>147.09373426437301</v>
+      </c>
+      <c r="C206" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206">
+        <v>0.96050345999999998</v>
+      </c>
+      <c r="E206">
+        <v>0.01</v>
+      </c>
+      <c r="F206" t="s">
+        <v>9</v>
+      </c>
+      <c r="G206">
+        <v>7.25</v>
+      </c>
+      <c r="H206">
+        <v>147.09373426437301</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>7.5</v>
+      </c>
+      <c r="B207">
+        <v>190.31878590583801</v>
+      </c>
+      <c r="C207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207">
+        <v>0.96032969999999995</v>
+      </c>
+      <c r="E207">
+        <v>0.01</v>
+      </c>
+      <c r="F207" t="s">
+        <v>9</v>
+      </c>
+      <c r="G207">
+        <v>7.5</v>
+      </c>
+      <c r="H207">
+        <v>190.31878590583801</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>8</v>
+      </c>
+      <c r="B208">
+        <v>194.682267427444</v>
+      </c>
+      <c r="C208" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208">
+        <v>0.96022224</v>
+      </c>
+      <c r="E208">
+        <v>0.01</v>
+      </c>
+      <c r="F208" t="s">
+        <v>9</v>
+      </c>
+      <c r="G208">
+        <v>8</v>
+      </c>
+      <c r="H208">
+        <v>194.682267427444</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>8.75</v>
+      </c>
+      <c r="B209">
+        <v>226.48857092857301</v>
+      </c>
+      <c r="C209" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209">
+        <v>0.96046286999999997</v>
+      </c>
+      <c r="E209">
+        <v>0.01</v>
+      </c>
+      <c r="F209" t="s">
+        <v>9</v>
+      </c>
+      <c r="G209">
+        <v>8.75</v>
+      </c>
+      <c r="H209">
+        <v>226.48857092857301</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>9</v>
+      </c>
+      <c r="B210">
+        <v>190.836321830749</v>
+      </c>
+      <c r="C210" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210">
+        <v>0.96046894999999999</v>
+      </c>
+      <c r="E210">
+        <v>0.01</v>
+      </c>
+      <c r="F210" t="s">
+        <v>9</v>
+      </c>
+      <c r="G210">
+        <v>9</v>
+      </c>
+      <c r="H210">
+        <v>190.836321830749</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>9.25</v>
+      </c>
+      <c r="B211">
+        <v>155.496073246002</v>
+      </c>
+      <c r="C211" t="s">
+        <v>13</v>
+      </c>
+      <c r="D211">
+        <v>0.96015452999999995</v>
+      </c>
+      <c r="E211">
+        <v>0.01</v>
+      </c>
+      <c r="F211" t="s">
+        <v>9</v>
+      </c>
+      <c r="G211">
+        <v>9.25</v>
+      </c>
+      <c r="H211">
+        <v>155.496073246002</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>9.75</v>
+      </c>
+      <c r="B212">
+        <v>220.67334914207399</v>
+      </c>
+      <c r="C212" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212">
+        <v>0.96072000000000002</v>
+      </c>
+      <c r="E212">
+        <v>0.01</v>
+      </c>
+      <c r="F212" t="s">
+        <v>9</v>
+      </c>
+      <c r="G212">
+        <v>9.75</v>
+      </c>
+      <c r="H212">
+        <v>220.67334914207399</v>
       </c>
     </row>
   </sheetData>
